--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0019F6-C0BC-411F-AEF2-B0B37A876BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B39A7-76B8-4FAA-B5F8-33C734C2AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -29,89 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">Alexei </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom Chan </t>
-  </si>
-  <si>
-    <t>Alica Ang</t>
-  </si>
-  <si>
-    <t>Mary lee</t>
-  </si>
-  <si>
-    <t>kumar Blackmore</t>
-  </si>
-  <si>
-    <t>kumarB</t>
-  </si>
-  <si>
-    <t>Alexei</t>
-  </si>
-  <si>
-    <t>TomC</t>
-  </si>
-  <si>
-    <t>AlicaA</t>
-  </si>
-  <si>
-    <t>MaryL</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>JE</t>
-  </si>
-  <si>
-    <t>Justin Loh</t>
-  </si>
-  <si>
-    <t>JustinL</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>boss</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>staffID</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -197,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -209,8 +127,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -527,12 +444,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,193 +458,67 @@
     <col min="2" max="2" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="9">
-        <v>32</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9">
-        <v>25</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9">
-        <v>56</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9">
-        <v>27</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9">
-        <v>44</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9">
-        <v>49</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9">
-        <v>62</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
     </row>
@@ -998,13 +789,7 @@
       <c r="A87" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{81D093B7-7D45-4C94-BB5C-7AACAE95581C}"/>
-    <hyperlink ref="B5" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{9931FE22-2FDA-4031-AC32-E8C581BFEA0B}"/>
-    <hyperlink ref="B4" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{C6203F7B-B631-4F6A-ABDC-A4C27A0A1DAD}"/>
-    <hyperlink ref="B3" r:id="rId4" display="OURIN@ntu.edu.sg" xr:uid="{49DFE096-5F31-4004-8F65-766F1044AD00}"/>
-  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B39A7-76B8-4FAA-B5F8-33C734C2AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919CA1E-2F3D-4B78-8D06-E0C4CD030FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -29,7 +29,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>staffID</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>kumar Blackmore</t>
+  </si>
+  <si>
+    <t>kumarB</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexei </t>
+  </si>
+  <si>
+    <t>Alexei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Chan </t>
+  </si>
+  <si>
+    <t>TomC</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Alica Ang</t>
+  </si>
+  <si>
+    <t>AlicaA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Mary lee</t>
+  </si>
+  <si>
+    <t>MaryL</t>
+  </si>
+  <si>
+    <t>Justin Loh</t>
+  </si>
+  <si>
+    <t>JustinL</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>477c0c7e-9d46-4202-969d-f3dd1933a575</t>
+  </si>
+  <si>
+    <t>67136f7c-fcd0-45f1-8859-9e3d183faeb3</t>
+  </si>
+  <si>
+    <t>5cc0e578-41b6-4e7d-b6e8-5f287be3e857</t>
+  </si>
+  <si>
+    <t>6cd0a2b8-2412-4c2a-bf28-b52d043d414b</t>
+  </si>
+  <si>
+    <t>9234b60f-23e1-4b28-9732-c987de0605a8</t>
+  </si>
+  <si>
+    <t>22148748-4c7e-4331-8686-d2c6d3c27e22</t>
+  </si>
+  <si>
+    <t>ec084e54-155c-4a11-b8e8-04df6cfe3c87</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,12 +553,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,67 +567,219 @@
     <col min="2" max="2" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
     </row>
@@ -789,7 +1050,13 @@
       <c r="A87" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{0A8C3208-0568-4032-9F41-062F2DB832D8}"/>
+    <hyperlink ref="C5" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{6FA42320-FD24-4F19-9065-11F28F4FDD9F}"/>
+    <hyperlink ref="C4" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{11DEDB14-B28D-4A52-A10D-1C4D2E609BDB}"/>
+    <hyperlink ref="C3" r:id="rId4" display="OURIN@ntu.edu.sg" xr:uid="{B8816F67-50F4-4260-B2A3-94366A7863FA}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919CA1E-2F3D-4B78-8D06-E0C4CD030FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD78298-2F77-4BBD-8ECB-C29EA59F8557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>ec084e54-155c-4a11-b8e8-04df6cfe3c87</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>244e4090-f72c-4ef3-8817-0f88efcf78ed</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
 </sst>
 </file>
@@ -558,13 +573,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -594,10 +609,10 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -606,8 +621,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>32</v>
+      <c r="F2" t="s">
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -752,8 +767,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD78298-2F77-4BBD-8ECB-C29EA59F8557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B4B587-DD56-4E72-82B9-B5108D6C0E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -142,16 +142,43 @@
     <t>33</t>
   </si>
   <si>
-    <t>244e4090-f72c-4ef3-8817-0f88efcf78ed</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>tester</t>
-  </si>
-  <si>
     <t>43</t>
+  </si>
+  <si>
+    <t>90b56832-f283-491f-86b0-ee90b6ac2aee</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>jake45</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>7993d42b-bc7c-44e5-b6fa-7a8b2874c294</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>johndoe</t>
+  </si>
+  <si>
+    <t>27a23a50-e50d-45e4-bd9b-7227f48f6c00</t>
+  </si>
+  <si>
+    <t>Mary Lim</t>
+  </si>
+  <si>
+    <t>marlim</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>f1680687-8ee8-44a2-8fe2-058ed929403d</t>
   </si>
 </sst>
 </file>
@@ -568,12 +595,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,38 +795,95 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -810,24 +894,24 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
@@ -838,8 +922,8 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
@@ -850,8 +934,8 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -859,19 +943,19 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -879,11 +963,11 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
@@ -894,8 +978,8 @@
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
@@ -903,11 +987,11 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
@@ -915,19 +999,19 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
@@ -938,12 +1022,12 @@
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
@@ -954,8 +1038,8 @@
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
@@ -986,11 +1070,11 @@
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -998,36 +1082,36 @@
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
@@ -1035,7 +1119,6 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
-      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
@@ -1045,16 +1128,14 @@
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
-      <c r="B75" s="1"/>
-    </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
@@ -1073,15 +1154,6 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B4B587-DD56-4E72-82B9-B5108D6C0E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72F14BE-5102-46B5-AC28-DB10862AC3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$1:$B$88</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$2:$B$85</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$12:$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+  <si>
+    <t>kumar Blackmore</t>
+  </si>
+  <si>
+    <t>kumarB</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexei </t>
+  </si>
+  <si>
+    <t>Alexei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Chan </t>
+  </si>
+  <si>
+    <t>TomC</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Alica Ang</t>
+  </si>
+  <si>
+    <t>AlicaA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Mary lee</t>
+  </si>
+  <si>
+    <t>MaryL</t>
+  </si>
+  <si>
+    <t>Justin Loh</t>
+  </si>
+  <si>
+    <t>JustinL</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>477c0c7e-9d46-4202-969d-f3dd1933a575</t>
+  </si>
+  <si>
+    <t>67136f7c-fcd0-45f1-8859-9e3d183faeb3</t>
+  </si>
+  <si>
+    <t>5cc0e578-41b6-4e7d-b6e8-5f287be3e857</t>
+  </si>
+  <si>
+    <t>6cd0a2b8-2412-4c2a-bf28-b52d043d414b</t>
+  </si>
+  <si>
+    <t>9234b60f-23e1-4b28-9732-c987de0605a8</t>
+  </si>
+  <si>
+    <t>22148748-4c7e-4331-8686-d2c6d3c27e22</t>
+  </si>
+  <si>
+    <t>ec084e54-155c-4a11-b8e8-04df6cfe3c87</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>90b56832-f283-491f-86b0-ee90b6ac2aee</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>jake45</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>7993d42b-bc7c-44e5-b6fa-7a8b2874c294</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>johndoe</t>
+  </si>
+  <si>
+    <t>Mary Lim</t>
+  </si>
+  <si>
+    <t>marlim</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Johnation</t>
+  </si>
+  <si>
+    <t>ifri4</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>7b883a31-5d13-45f5-b176-9972361a4a00</t>
+  </si>
+  <si>
+    <t>6a4011f9-d6a1-45b0-a4cd-bfa7b791b7d4</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -47,145 +188,13 @@
   </si>
   <si>
     <t>branch</t>
-  </si>
-  <si>
-    <t>kumar Blackmore</t>
-  </si>
-  <si>
-    <t>kumarB</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexei </t>
-  </si>
-  <si>
-    <t>Alexei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom Chan </t>
-  </si>
-  <si>
-    <t>TomC</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>Alica Ang</t>
-  </si>
-  <si>
-    <t>AlicaA</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>JE</t>
-  </si>
-  <si>
-    <t>Mary lee</t>
-  </si>
-  <si>
-    <t>MaryL</t>
-  </si>
-  <si>
-    <t>Justin Loh</t>
-  </si>
-  <si>
-    <t>JustinL</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>boss</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>477c0c7e-9d46-4202-969d-f3dd1933a575</t>
-  </si>
-  <si>
-    <t>67136f7c-fcd0-45f1-8859-9e3d183faeb3</t>
-  </si>
-  <si>
-    <t>5cc0e578-41b6-4e7d-b6e8-5f287be3e857</t>
-  </si>
-  <si>
-    <t>6cd0a2b8-2412-4c2a-bf28-b52d043d414b</t>
-  </si>
-  <si>
-    <t>9234b60f-23e1-4b28-9732-c987de0605a8</t>
-  </si>
-  <si>
-    <t>22148748-4c7e-4331-8686-d2c6d3c27e22</t>
-  </si>
-  <si>
-    <t>ec084e54-155c-4a11-b8e8-04df6cfe3c87</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>90b56832-f283-491f-86b0-ee90b6ac2aee</t>
-  </si>
-  <si>
-    <t>Jake</t>
-  </si>
-  <si>
-    <t>jake45</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>7993d42b-bc7c-44e5-b6fa-7a8b2874c294</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>johndoe</t>
-  </si>
-  <si>
-    <t>27a23a50-e50d-45e4-bd9b-7227f48f6c00</t>
-  </si>
-  <si>
-    <t>Mary Lim</t>
-  </si>
-  <si>
-    <t>marlim</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>f1680687-8ee8-44a2-8fe2-058ed929403d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,12 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -264,9 +267,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,11 +278,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,12 +597,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,233 +612,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -844,45 +846,45 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -891,14 +893,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -914,16 +916,16 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
@@ -934,16 +936,16 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -951,31 +953,31 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
@@ -987,11 +989,11 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
@@ -1010,44 +1012,44 @@
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
@@ -1067,93 +1069,41 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="2"/>
-    </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72F14BE-5102-46B5-AC28-DB10862AC3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC407AA9-526B-4FA7-AFA1-462C37769C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -188,12 +188,34 @@
   </si>
   <si>
     <t>branch</t>
+  </si>
+  <si>
+    <t>00d6d9ca-d496-44f2-b6bb-acb395ca17a1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>johnpoa</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>b109f3bbbc244eb82441917ed06d618b9008dd09b3befd1b5e07394c706a8bb980b1d7785e5976ec049b46df5f1326af5a2ea6d103fd07c95385ffab0cacbc86</t>
+  </si>
+  <si>
+    <t>e9480299604d7018cd7a32daca1afe11e2d42092c91978ed5ece0b8f3125279e2ec0d9148d6ef1fa0ed115c6f9f36c34328f839403798d5e7068e87ff6c5ca18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,21 +619,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -633,8 +655,11 @@
       <c r="G1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -656,8 +681,11 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -679,8 +707,11 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -702,8 +733,11 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -725,8 +759,11 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -748,8 +785,11 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -771,8 +811,11 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -794,8 +837,11 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -817,8 +863,11 @@
       <c r="G9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -840,8 +889,11 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -863,8 +915,11 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -886,20 +941,45 @@
       <c r="G12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
     </row>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC407AA9-526B-4FA7-AFA1-462C37769C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6972681-A938-45B9-BB7C-0E804D9175D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="staff" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$2:$B$85</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$12:$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$2:$B$84</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$A$11:$XFD$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -154,9 +154,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>Johnation</t>
-  </si>
-  <si>
     <t>ifri4</t>
   </si>
   <si>
@@ -190,18 +187,6 @@
     <t>branch</t>
   </si>
   <si>
-    <t>00d6d9ca-d496-44f2-b6bb-acb395ca17a1</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>johnpoa</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -209,6 +194,63 @@
   </si>
   <si>
     <t>e9480299604d7018cd7a32daca1afe11e2d42092c91978ed5ece0b8f3125279e2ec0d9148d6ef1fa0ed115c6f9f36c34328f839403798d5e7068e87ff6c5ca18</t>
+  </si>
+  <si>
+    <t>John Lim</t>
+  </si>
+  <si>
+    <t>0b9b2e62-7f44-4e56-88b4-87a42f5b2d09</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>afreen</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>67ce0113-83a4-4b83-831c-20cf81329c22</t>
+  </si>
+  <si>
+    <t>johndoe3</t>
+  </si>
+  <si>
+    <t>1dec91e7-28a4-4184-b731-a875543327c9</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>tom3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AMK</t>
+  </si>
+  <si>
+    <t>62fa275b-20d4-4177-9625-80abf482c608</t>
+  </si>
+  <si>
+    <t>Tome</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2198db1f-d555-4c6e-be37-5ee944f2ebc8</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
 </sst>
 </file>
@@ -619,12 +661,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,65 +677,65 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
+      <c r="F2">
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -702,232 +744,232 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>27</v>
+      <c r="F5" t="s">
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -936,52 +978,52 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -996,12 +1038,12 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
@@ -1017,10 +1059,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1036,12 +1078,12 @@
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
@@ -1056,8 +1098,8 @@
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
@@ -1080,11 +1122,11 @@
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1093,43 +1135,42 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
@@ -1139,29 +1180,25 @@
       <c r="A55" s="3"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="1"/>
-    </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
@@ -1170,27 +1207,12 @@
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{0A8C3208-0568-4032-9F41-062F2DB832D8}"/>
-    <hyperlink ref="C5" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{6FA42320-FD24-4F19-9065-11F28F4FDD9F}"/>
-    <hyperlink ref="C4" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{11DEDB14-B28D-4A52-A10D-1C4D2E609BDB}"/>
-    <hyperlink ref="C3" r:id="rId4" display="OURIN@ntu.edu.sg" xr:uid="{B8816F67-50F4-4260-B2A3-94366A7863FA}"/>
+    <hyperlink ref="C5" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{0A8C3208-0568-4032-9F41-062F2DB832D8}"/>
+    <hyperlink ref="C4" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{6FA42320-FD24-4F19-9065-11F28F4FDD9F}"/>
+    <hyperlink ref="C3" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{11DEDB14-B28D-4A52-A10D-1C4D2E609BDB}"/>
+    <hyperlink ref="C2" r:id="rId4" display="OURIN@ntu.edu.sg" xr:uid="{B8816F67-50F4-4260-B2A3-94366A7863FA}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>734d444a-293c-4d27-89ec-7020ab5d33f2</t>
+  </si>
+  <si>
+    <t>Tommy Lim</t>
+  </si>
+  <si>
+    <t>tommylim35</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
 </sst>
 </file>
@@ -661,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1014,12 +1026,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1035,7 +1047,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
@@ -1043,7 +1055,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
@@ -1058,12 +1070,12 @@
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
@@ -1074,12 +1086,12 @@
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -1118,23 +1130,23 @@
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
+      <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1142,16 +1154,16 @@
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
@@ -1167,18 +1179,17 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="1"/>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
@@ -1186,7 +1197,7 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
@@ -1203,9 +1214,6 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="91">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>c3a0c8ba-1af2-44e8-af39-1190d2148af4</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -748,25 +754,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>52</v>
@@ -774,25 +780,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>52</v>
@@ -800,25 +806,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>27</v>
+      <c r="F4" t="s">
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
         <v>52</v>
@@ -826,25 +832,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -852,25 +858,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>52</v>
@@ -878,25 +884,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>52</v>
@@ -904,25 +910,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>52</v>
@@ -930,13 +936,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -945,24 +951,24 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -971,36 +977,36 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
         <v>52</v>
@@ -1019,12 +1025,12 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
@@ -1035,12 +1041,12 @@
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1079,23 +1085,23 @@
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1103,16 +1109,16 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
@@ -1128,18 +1134,17 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
@@ -1162,17 +1167,14 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{0A8C3208-0568-4032-9F41-062F2DB832D8}"/>
-    <hyperlink ref="C4" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{6FA42320-FD24-4F19-9065-11F28F4FDD9F}"/>
-    <hyperlink ref="C3" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{11DEDB14-B28D-4A52-A10D-1C4D2E609BDB}"/>
+    <hyperlink ref="C4" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{0A8C3208-0568-4032-9F41-062F2DB832D8}"/>
+    <hyperlink ref="C3" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{6FA42320-FD24-4F19-9065-11F28F4FDD9F}"/>
+    <hyperlink ref="C2" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{11DEDB14-B28D-4A52-A10D-1C4D2E609BDB}"/>
     <hyperlink ref="C2" r:id="rId4" display="OURIN@ntu.edu.sg" xr:uid="{B8816F67-50F4-4260-B2A3-94366A7863FA}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6972681-A938-45B9-BB7C-0E804D9175D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964EDBC3-CDE6-419F-BCA2-F322225CAD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$2:$B$84</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$A$11:$XFD$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -97,9 +97,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>477c0c7e-9d46-4202-969d-f3dd1933a575</t>
-  </si>
-  <si>
     <t>67136f7c-fcd0-45f1-8859-9e3d183faeb3</t>
   </si>
   <si>
@@ -193,79 +190,43 @@
     <t>b109f3bbbc244eb82441917ed06d618b9008dd09b3befd1b5e07394c706a8bb980b1d7785e5976ec049b46df5f1326af5a2ea6d103fd07c95385ffab0cacbc86</t>
   </si>
   <si>
-    <t>e9480299604d7018cd7a32daca1afe11e2d42092c91978ed5ece0b8f3125279e2ec0d9148d6ef1fa0ed115c6f9f36c34328f839403798d5e7068e87ff6c5ca18</t>
-  </si>
-  <si>
     <t>John Lim</t>
   </si>
   <si>
-    <t>0b9b2e62-7f44-4e56-88b4-87a42f5b2d09</t>
-  </si>
-  <si>
-    <t>Afreen</t>
-  </si>
-  <si>
-    <t>afreen</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>67ce0113-83a4-4b83-831c-20cf81329c22</t>
   </si>
   <si>
     <t>johndoe3</t>
   </si>
   <si>
-    <t>1dec91e7-28a4-4184-b731-a875543327c9</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>tom3</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2198db1f-d555-4c6e-be37-5ee944f2ebc8</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>3a4a3a5c-ec75-4dff-bcd5-220d5f37f186</t>
+  </si>
+  <si>
+    <t>Testing Hello</t>
+  </si>
+  <si>
+    <t>teiht</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>3f462bdfa4ef03329b86779baf5d7601c3899dcb47d25249ea07c852373353ffe7d450226975eccfe566887863b0422971f51203492bca4cc12f32a08217555c</t>
   </si>
   <si>
     <t>AMK</t>
-  </si>
-  <si>
-    <t>62fa275b-20d4-4177-9625-80abf482c608</t>
-  </si>
-  <si>
-    <t>Tome</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2198db1f-d555-4c6e-be37-5ee944f2ebc8</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1c11e179-5a52-4b82-80b0-433e055f2890</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>53</t>
   </si>
 </sst>
 </file>
@@ -676,12 +637,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,33 +653,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
@@ -739,12 +700,12 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
@@ -765,12 +726,12 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
@@ -791,12 +752,12 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -811,18 +772,18 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -837,23 +798,23 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
@@ -862,25 +823,23 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7"/>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -889,24 +848,24 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -915,96 +874,52 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
@@ -1016,19 +931,19 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
@@ -1039,32 +954,32 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
@@ -1099,32 +1014,32 @@
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
@@ -1135,8 +1050,8 @@
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
@@ -1148,7 +1063,6 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
@@ -1156,14 +1070,13 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
@@ -1174,10 +1087,10 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
@@ -1185,12 +1098,6 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
   <si>
     <t>kumar Blackmore</t>
   </si>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964EDBC3-CDE6-419F-BCA2-F322225CAD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C622CDBC-6358-4722-8814-24FB62377C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -52,21 +52,9 @@
     <t>Alexei</t>
   </si>
   <si>
-    <t xml:space="preserve">Tom Chan </t>
-  </si>
-  <si>
-    <t>TomC</t>
-  </si>
-  <si>
     <t>JP</t>
   </si>
   <si>
-    <t>Alica Ang</t>
-  </si>
-  <si>
-    <t>AlicaA</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -94,18 +82,9 @@
     <t>A</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>67136f7c-fcd0-45f1-8859-9e3d183faeb3</t>
   </si>
   <si>
-    <t>5cc0e578-41b6-4e7d-b6e8-5f287be3e857</t>
-  </si>
-  <si>
-    <t>6cd0a2b8-2412-4c2a-bf28-b52d043d414b</t>
-  </si>
-  <si>
     <t>9234b60f-23e1-4b28-9732-c987de0605a8</t>
   </si>
   <si>
@@ -118,9 +97,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>90b56832-f283-491f-86b0-ee90b6ac2aee</t>
   </si>
   <si>
@@ -142,27 +118,9 @@
     <t>johndoe</t>
   </si>
   <si>
-    <t>Mary Lim</t>
-  </si>
-  <si>
-    <t>marlim</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>ifri4</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>7b883a31-5d13-45f5-b176-9972361a4a00</t>
-  </si>
-  <si>
-    <t>6a4011f9-d6a1-45b0-a4cd-bfa7b791b7d4</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -190,15 +148,6 @@
     <t>b109f3bbbc244eb82441917ed06d618b9008dd09b3befd1b5e07394c706a8bb980b1d7785e5976ec049b46df5f1326af5a2ea6d103fd07c95385ffab0cacbc86</t>
   </si>
   <si>
-    <t>John Lim</t>
-  </si>
-  <si>
-    <t>67ce0113-83a4-4b83-831c-20cf81329c22</t>
-  </si>
-  <si>
-    <t>johndoe3</t>
-  </si>
-  <si>
     <t>2198db1f-d555-4c6e-be37-5ee944f2ebc8</t>
   </si>
   <si>
@@ -208,83 +157,22 @@
     <t>49</t>
   </si>
   <si>
-    <t>3a4a3a5c-ec75-4dff-bcd5-220d5f37f186</t>
-  </si>
-  <si>
-    <t>Testing Hello</t>
-  </si>
-  <si>
-    <t>teiht</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
-    <t>3f462bdfa4ef03329b86779baf5d7601c3899dcb47d25249ea07c852373353ffe7d450226975eccfe566887863b0422971f51203492bca4cc12f32a08217555c</t>
-  </si>
-  <si>
-    <t>AMK</t>
-  </si>
-  <si>
     <t>b92de0b548d7e14491fceada61053e64b34e3a81753b7b2a495c8e02442d24a7a9a16ee501742acb8b28e8f975e110c0f96b69205173c04aef0b2c7ce1c1abcd</t>
   </si>
   <si>
-    <t>8a9e8ea4-05e5-4dd7-b84a-d9379dbc62b2</t>
-  </si>
-  <si>
-    <t>Paulina Ong</t>
-  </si>
-  <si>
-    <t>paulinaong33</t>
-  </si>
-  <si>
-    <t>Pl33</t>
-  </si>
-  <si>
-    <t>662dbb26-9584-42f2-bd2d-7bf6ca2c76a8</t>
-  </si>
-  <si>
-    <t>Yi Lin</t>
-  </si>
-  <si>
-    <t>yilintea</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>55b546bc-a4ad-44bf-b683-3277aae50727</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>tester32</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>e8f829c6-e26a-48db-8099-22a7c48d63e6</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>e5a5be4fcbe8a671d25105efa247da2bda165fa64a81711de495f02f5fff4ce88208ab93c6c658e8a35a41b4a21f2c04d5324ff0205a803ae14254279e45e15e</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,12 +235,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -365,14 +262,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,44 +588,44 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.54296875" collapsed="true"/>
+    <col min="1" max="1" width="22" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -745,50 +640,50 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -797,48 +692,50 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5"/>
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -847,24 +744,24 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -873,18 +770,18 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -899,44 +796,44 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
     </row>
@@ -997,8 +894,8 @@
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
@@ -1058,22 +955,22 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C622CDBC-6358-4722-8814-24FB62377C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3930C5-0337-4C66-932F-C3BEFAE62189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -160,13 +160,10 @@
     <t>62</t>
   </si>
   <si>
-    <t>b92de0b548d7e14491fceada61053e64b34e3a81753b7b2a495c8e02442d24a7a9a16ee501742acb8b28e8f975e110c0f96b69205173c04aef0b2c7ce1c1abcd</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>-</t>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -588,13 +585,19 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.6328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="129.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -640,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -721,7 +724,7 @@
         <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
@@ -750,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -806,12 +809,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+      <c r="A9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
+      <c r="A10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -164,12 +164,46 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>3f462bdfa4ef03329b86779baf5d7601c3899dcb47d25249ea07c852373353ffe7d450226975eccfe566887863b0422971f51203492bca4cc12f32a08217555c</t>
+  </si>
+  <si>
+    <t>ba032421-7650-49a1-8cf9-4c9e8fdd8411</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>afreenrafi</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>AMK</t>
+  </si>
+  <si>
+    <t>2b85eb00-80dc-402c-b4a7-a9426101f40f</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>racheltan</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1b08ee2e-932b-44e8-8f1a-81a8f5487389</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -590,14 +624,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="129.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="35.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="3.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.6328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="129.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -727,7 +761,7 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -758,13 +792,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -773,33 +807,33 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -809,38 +843,40 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
@@ -851,8 +887,8 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -883,11 +919,11 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -895,36 +931,36 @@
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
@@ -932,7 +968,6 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
@@ -942,18 +977,16 @@
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1"/>
-    </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
@@ -970,15 +1003,6 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FOMS/data/staff_list.xlsx
+++ b/FOMS/data/staff_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\RACHEL\Education\NTU\Y1S2\SC2002 - OOP\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3930C5-0337-4C66-932F-C3BEFAE62189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098CAFDC-EBC8-4B7C-886C-21C6A4A4721C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -109,9 +109,6 @@
     <t>28</t>
   </si>
   <si>
-    <t>7993d42b-bc7c-44e5-b6fa-7a8b2874c294</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
@@ -164,36 +161,6 @@
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>3f462bdfa4ef03329b86779baf5d7601c3899dcb47d25249ea07c852373353ffe7d450226975eccfe566887863b0422971f51203492bca4cc12f32a08217555c</t>
-  </si>
-  <si>
-    <t>ba032421-7650-49a1-8cf9-4c9e8fdd8411</t>
-  </si>
-  <si>
-    <t>Afreen</t>
-  </si>
-  <si>
-    <t>afreenrafi</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>AMK</t>
-  </si>
-  <si>
-    <t>2b85eb00-80dc-402c-b4a7-a9426101f40f</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>racheltan</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>1b08ee2e-932b-44e8-8f1a-81a8f5487389</t>
@@ -203,7 +170,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,45 +585,45 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="35.6328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.6328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.6328125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="129.453125" collapsed="true"/>
+    <col min="1" max="1" width="35.6328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="129.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -677,13 +643,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -703,13 +669,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -729,13 +695,13 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -755,13 +721,13 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -787,12 +753,12 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -813,33 +779,33 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -862,15 +828,15 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
     </row>
@@ -980,13 +946,13 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
